--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26/01/2025</t>
+          <t>03/02/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Cerro CA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -554,29 +554,25 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.23</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/01/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -585,19 +581,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -607,46 +603,42 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.15</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/02/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -655,44 +647,40 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.55</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>08/02/2025</t>
+          <t>24/02/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -701,68 +689,64 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.39</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13/02/2025</t>
+          <t>08/03/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -775,40 +759,36 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
+          <t>18/03/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -817,44 +797,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.99</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
@@ -866,56 +842,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23/02/2025</t>
+          <t>23/03/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Martin S.J.</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>13</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -924,65 +896,61 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/03/2025</t>
+          <t>26/03/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>River Plate</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M9" t="n">
-        <v>17</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>3</v>
-      </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>09/03/2025</t>
+          <t>29/03/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -994,16 +962,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1016,36 +984,32 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.55</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15/03/2025</t>
+          <t>06/04/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dep. Riestra</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1076,20 +1040,16 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.1</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1098,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/03/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1107,68 +1067,64 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rosario</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/04/2025</t>
+          <t>18/04/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1177,44 +1133,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14/04/2025</t>
+          <t>26/04/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1226,16 +1178,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1248,84 +1200,40 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>18/04/2025</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gimnasia L.P.</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>12</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -1669,6 +1577,114 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1218,22 +1218,58 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1272,22 +1272,58 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17/05/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1326,22 +1326,58 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1380,22 +1380,58 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1434,22 +1434,58 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06/06/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cerro CA</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1488,22 +1488,58 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15/06/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>16</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1542,40 +1542,112 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22/06/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1650,22 +1650,58 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1704,22 +1704,58 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cerro CA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,12 +518,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>03/02/2025</t>
+          <t>26/01/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cerro CA</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -554,25 +554,29 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.23</v>
+      </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/02/2025</t>
+          <t>30/01/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,19 +585,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -603,42 +607,46 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.15</v>
+      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>02/02/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Montevideo City</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -647,40 +655,44 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.55</v>
+      </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24/02/2025</t>
+          <t>08/02/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -689,64 +701,68 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.39</v>
+      </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08/03/2025</t>
+          <t>13/02/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -759,36 +775,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.52</v>
+      </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N6" t="n">
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18/03/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -797,40 +817,44 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.99</v>
+      </c>
       <c r="M7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
@@ -842,20 +866,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>23/03/2025</t>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>River Plate</t>
@@ -863,31 +887,35 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8</v>
+      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -896,23 +924,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26/03/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -924,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -932,25 +960,29 @@
       <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.12</v>
+      </c>
       <c r="M9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29/03/2025</t>
+          <t>09/03/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -962,16 +994,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -984,32 +1016,36 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.55</v>
+      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/04/2025</t>
+          <t>15/03/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1040,16 +1076,20 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.1</v>
+      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1058,7 +1098,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14/04/2025</t>
+          <t>30/03/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1067,64 +1107,68 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Rosario</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.13</v>
+      </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18/04/2025</t>
+          <t>06/04/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1133,40 +1177,44 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.89</v>
+      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>26/04/2025</t>
+          <t>14/04/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1178,16 +1226,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1200,18 +1248,22 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.88</v>
+      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
         <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -1220,20 +1272,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>18/04/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>River Plate</t>
@@ -1241,40 +1293,44 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.36</v>
+      </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>17/05/2025</t>
+          <t>27/04/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1283,106 +1339,114 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25/05/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Velez Sarsfield</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.73</v>
+      </c>
       <c r="M17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>14/07/2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1391,64 +1455,68 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.63</v>
+      </c>
       <c r="M18" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" t="n">
         <v>9</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>6</v>
       </c>
-      <c r="O18" t="n">
-        <v>7</v>
-      </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>20/07/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cerro CA</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1457,40 +1525,44 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.33</v>
+      </c>
       <c r="M19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
+        <v>7</v>
+      </c>
+      <c r="P19" t="n">
         <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15/06/2025</t>
+          <t>28/07/2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1499,263 +1571,123 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M20" t="n">
+        <v>11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>16</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
-      </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>19/06/2025</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Plaza Colonia</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>22/06/2025</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Liverpool M.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>9</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>30/06/2025</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Cerro Largo</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>4</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>02/08/2025</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cerro CA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>6</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1937,114 +1869,6 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09/08/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1676,22 +1676,62 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>17/08/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Godoy Cruz</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M22" t="n">
+        <v>22</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1734,22 +1734,62 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>26/08/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14</v>
+      </c>
+      <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1792,22 +1792,62 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>San Martin S.J.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="M24" t="n">
+        <v>12</v>
+      </c>
+      <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13/09/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>21/09/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Atl. Tucuman</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M26" t="n">
+        <v>18</v>
+      </c>
+      <c r="N26" t="n">
+        <v>17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>28/09/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Dep. Riestra</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M27" t="n">
+        <v>21</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -2024,40 +2024,120 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>06/10/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rosario</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>18</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="M29" t="n">
+        <v>28</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -2140,22 +2140,62 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M30" t="n">
+        <v>11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -2198,22 +2198,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gimnasia L.P.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>19</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Boca Juniors</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M32" t="n">
+        <v>9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Velez Sarsfield</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/club-atletico-river-plate.xlsx
+++ b/new-stats/club-atletico-river-plate.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13/02/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Argentinos Jrs</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
